--- a/data/20190415.xlsx
+++ b/data/20190415.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25100" windowHeight="15640" tabRatio="500"/>
+    <workbookView xWindow="3320" yWindow="0" windowWidth="25080" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表11" sheetId="11" r:id="rId1"/>
-    <sheet name="道氏" sheetId="1" r:id="rId2"/>
-    <sheet name="横河" sheetId="2" r:id="rId3"/>
-    <sheet name="天马" sheetId="3" r:id="rId4"/>
-    <sheet name="蓝盾" sheetId="4" r:id="rId5"/>
-    <sheet name="工作表5" sheetId="5" r:id="rId6"/>
-    <sheet name="金农" sheetId="6" r:id="rId7"/>
-    <sheet name="宁行" sheetId="7" r:id="rId8"/>
-    <sheet name="苏农" sheetId="8" r:id="rId9"/>
-    <sheet name="万顺" sheetId="9" r:id="rId10"/>
-    <sheet name="兄弟" sheetId="10" r:id="rId11"/>
+    <sheet name="持仓分析" sheetId="12" r:id="rId2"/>
+    <sheet name="道氏" sheetId="1" r:id="rId3"/>
+    <sheet name="横河" sheetId="2" r:id="rId4"/>
+    <sheet name="天马" sheetId="3" r:id="rId5"/>
+    <sheet name="蓝盾" sheetId="4" r:id="rId6"/>
+    <sheet name="工作表5" sheetId="5" r:id="rId7"/>
+    <sheet name="金农" sheetId="6" r:id="rId8"/>
+    <sheet name="宁行" sheetId="7" r:id="rId9"/>
+    <sheet name="苏农" sheetId="8" r:id="rId10"/>
+    <sheet name="万顺" sheetId="9" r:id="rId11"/>
+    <sheet name="兄弟" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>小盘子，明显被炒作了</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +109,102 @@
   </si>
   <si>
     <t>今日买入凯发20算作是建仓了。   感觉已经回调到位了。   凯发也是个小盘子，后期应该会被爆炒，像横河一样。。。 应该就是在4~6月，不过也得有大盘的适当配合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道氏转债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓预期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯发转债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强1， 回调已到位，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期像横河一样，小盘 150就出！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁行转债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期走势不错，强者恒强，回调中。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金农转债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓邦转债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊力转债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙商转债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭电转债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">刚上市，最近两周会回调，但是可以加仓。  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦到110就加三成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平银？ 江阴？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很强势！中彩票的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以前所观察的所谓的在转股期附近会回调，也不尽然，跟当时的大盘紧密相关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘决定整体走势，   内核也是公司的业绩！！！  董事有权啥时公布业绩报告，利好或者利空！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道氏股价相对很低，所以转债的溢价率很高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.19开始转股，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚上市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,6 +223,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -149,13 +264,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B5" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -668,6 +787,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -687,7 +824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -708,6 +845,133 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -730,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -763,27 +1027,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
@@ -807,6 +1050,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -845,7 +1091,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -859,22 +1123,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>